--- a/Hall_Effect/Datos/Efecto_Hall.xlsx
+++ b/Hall_Effect/Datos/Efecto_Hall.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laboratorio\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josealejandromontanacortes/Dropbox/Laboratorio_Avanzado/Hall_Effect/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A754B4CA-A4C1-C449-819A-C5E7E92424B2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividad_2_parte_1" sheetId="1" r:id="rId1"/>
@@ -82,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,7 +135,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -146,7 +147,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -172,7 +172,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -776,7 +776,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1905056944"/>
@@ -838,7 +838,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1905055280"/>
@@ -855,7 +855,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -881,7 +880,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -911,7 +910,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -925,7 +924,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -937,7 +936,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -963,7 +961,480 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Actividad_2_parte_1!$B$2:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-33.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-30.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-28.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-26.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-23.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-21.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-20.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-15.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-13.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-10.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>29.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Actividad_2_parte_1!$D$2:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1162-DF4A-B3DB-B961113EA3FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="739053583"/>
+        <c:axId val="724605903"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="739053583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="724605903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="724605903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="739053583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1262,7 +1733,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1670811776"/>
@@ -1324,7 +1795,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1670810944"/>
@@ -1365,7 +1836,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1376,10 +1847,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1391,7 +1862,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1417,7 +1887,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1508,7 +1978,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1682,7 +2152,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1903916352"/>
@@ -1744,7 +2214,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1903081920"/>
@@ -1785,7 +2255,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1916,6 +2386,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2949,6 +3459,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3481,7 +4507,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3491,6 +4523,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6339829C-D52A-5C4B-99B9-7F9AD1A7821B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3516,7 +4584,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3551,7 +4625,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3831,22 +4911,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C43" sqref="B43:C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -3860,7 +4940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>20</v>
       </c>
@@ -3874,7 +4954,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20</v>
       </c>
@@ -3888,7 +4968,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20</v>
       </c>
@@ -3902,7 +4982,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20</v>
       </c>
@@ -3916,7 +4996,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20</v>
       </c>
@@ -3930,12 +5010,12 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20</v>
       </c>
       <c r="B7">
-        <v>21.9</v>
+        <v>-21.9</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -3944,7 +5024,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20</v>
       </c>
@@ -3958,7 +5038,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20</v>
       </c>
@@ -3972,7 +5052,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>20</v>
       </c>
@@ -3986,7 +5066,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>20</v>
       </c>
@@ -4000,7 +5080,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>20</v>
       </c>
@@ -4014,7 +5094,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>20</v>
       </c>
@@ -4028,7 +5108,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>20</v>
       </c>
@@ -4042,7 +5122,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>20</v>
       </c>
@@ -4056,7 +5136,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>20</v>
       </c>
@@ -4070,7 +5150,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>20</v>
       </c>
@@ -4084,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>20</v>
       </c>
@@ -4098,7 +5178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>20</v>
       </c>
@@ -4112,7 +5192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -4126,7 +5206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4140,7 +5220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4154,7 +5234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -4168,7 +5248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20</v>
       </c>
@@ -4182,7 +5262,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>20</v>
       </c>
@@ -4196,7 +5276,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>20</v>
       </c>
@@ -4210,7 +5290,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>20</v>
       </c>
@@ -4224,7 +5304,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>20</v>
       </c>
@@ -4238,7 +5318,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>20</v>
       </c>
@@ -4252,7 +5332,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>20</v>
       </c>
@@ -4266,7 +5346,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>20</v>
       </c>
@@ -4280,7 +5360,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>20</v>
       </c>
@@ -4294,7 +5374,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>20</v>
       </c>
@@ -4308,7 +5388,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>20</v>
       </c>
@@ -4322,7 +5402,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>20</v>
       </c>
@@ -4336,7 +5416,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>20</v>
       </c>
@@ -4350,7 +5430,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>20</v>
       </c>
@@ -4364,7 +5444,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>20</v>
       </c>
@@ -4378,7 +5458,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>20</v>
       </c>
@@ -4392,7 +5472,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>20</v>
       </c>
@@ -4406,7 +5486,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>20</v>
       </c>
@@ -4420,7 +5500,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>20</v>
       </c>
@@ -4434,7 +5514,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>20</v>
       </c>
@@ -4448,7 +5528,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>20</v>
       </c>
@@ -4462,7 +5542,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>20</v>
       </c>
@@ -4476,7 +5556,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>20</v>
       </c>
@@ -4490,7 +5570,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>20</v>
       </c>
@@ -4504,7 +5584,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>20</v>
       </c>
@@ -4518,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>20</v>
       </c>
@@ -4532,7 +5612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>20</v>
       </c>
@@ -4546,7 +5626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>20</v>
       </c>
@@ -4560,7 +5640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>20</v>
       </c>
@@ -4574,7 +5654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>20</v>
       </c>
@@ -4588,7 +5668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>20</v>
       </c>
@@ -4602,7 +5682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>20</v>
       </c>
@@ -4616,7 +5696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>20</v>
       </c>
@@ -4630,7 +5710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>20</v>
       </c>
@@ -4644,7 +5724,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>20</v>
       </c>
@@ -4658,7 +5738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>20</v>
       </c>
@@ -4672,7 +5752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>20</v>
       </c>
@@ -4686,7 +5766,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>20</v>
       </c>
@@ -4700,7 +5780,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>20</v>
       </c>
@@ -4714,7 +5794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>20</v>
       </c>
@@ -4735,20 +5815,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -4762,7 +5842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-11.3</v>
       </c>
@@ -4776,7 +5856,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-10.3</v>
       </c>
@@ -4790,7 +5870,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-9.1</v>
       </c>
@@ -4804,7 +5884,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-7.8</v>
       </c>
@@ -4818,7 +5898,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-6.4</v>
       </c>
@@ -4832,7 +5912,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-5.3</v>
       </c>
@@ -4846,7 +5926,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-3.4</v>
       </c>
@@ -4860,7 +5940,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-14.3</v>
       </c>
@@ -4874,7 +5954,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-15.3</v>
       </c>
@@ -4888,7 +5968,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-16.100000000000001</v>
       </c>
@@ -4902,7 +5982,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-17.100000000000001</v>
       </c>
@@ -4916,7 +5996,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>7.2</v>
       </c>
@@ -4927,7 +6007,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4.9000000000000004</v>
       </c>
@@ -4935,7 +6015,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5.9</v>
       </c>
@@ -4943,7 +6023,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>8.6</v>
       </c>
@@ -4951,7 +6031,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>9.9</v>
       </c>
@@ -4959,7 +6039,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>11.1</v>
       </c>
@@ -4967,7 +6047,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>12.4</v>
       </c>
@@ -4975,7 +6055,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>13.6</v>
       </c>
@@ -4983,7 +6063,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>14.9</v>
       </c>
@@ -4991,7 +6071,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-10.9</v>
       </c>
@@ -4999,7 +6079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-15.5</v>
       </c>
@@ -5007,7 +6087,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>15.9</v>
       </c>
@@ -5015,7 +6095,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>17.100000000000001</v>
       </c>
@@ -5023,7 +6103,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>18.2</v>
       </c>
@@ -5031,7 +6111,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>19.5</v>
       </c>
@@ -5039,7 +6119,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>20.5</v>
       </c>
@@ -5047,7 +6127,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>21.4</v>
       </c>
@@ -5062,19 +6142,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -5085,7 +6165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>59</v>
       </c>
@@ -5096,7 +6176,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>-1.61</v>
       </c>
@@ -5104,7 +6184,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>-1.53</v>
       </c>
@@ -5112,7 +6192,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>-1.43</v>
       </c>
@@ -5120,7 +6200,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>-1.28</v>
       </c>
@@ -5128,7 +6208,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>-1.18</v>
       </c>
@@ -5136,7 +6216,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>-1.08</v>
       </c>
@@ -5144,7 +6224,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>-1.01</v>
       </c>
@@ -5152,7 +6232,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>-0.84</v>
       </c>
@@ -5160,7 +6240,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>-0.74</v>
       </c>
@@ -5168,7 +6248,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>-0.63</v>
       </c>
@@ -5176,7 +6256,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>-0.55000000000000004</v>
       </c>
@@ -5184,7 +6264,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>-0.4</v>
       </c>
@@ -5192,7 +6272,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>-0.31</v>
       </c>
@@ -5200,7 +6280,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>-0.18</v>
       </c>
@@ -5208,7 +6288,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>-0.06</v>
       </c>
@@ -5216,7 +6296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>0.09</v>
       </c>
@@ -5224,7 +6304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>0.2</v>
       </c>
@@ -5232,7 +6312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>0.28999999999999998</v>
       </c>
@@ -5240,7 +6320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>0.42</v>
       </c>
@@ -5248,7 +6328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>0.52</v>
       </c>
@@ -5256,7 +6336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>0.61</v>
       </c>
@@ -5264,7 +6344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>0.71</v>
       </c>
@@ -5272,7 +6352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>0.8</v>
       </c>
@@ -5280,7 +6360,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>0.92</v>
       </c>
@@ -5288,7 +6368,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>1.05</v>
       </c>
@@ -5296,7 +6376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>1.1399999999999999</v>
       </c>
@@ -5304,7 +6384,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>1.26</v>
       </c>
@@ -5312,7 +6392,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>1.34</v>
       </c>
@@ -5320,7 +6400,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>1.44</v>
       </c>
@@ -5328,7 +6408,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>1.54</v>
       </c>
@@ -5342,20 +6422,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -5366,7 +6446,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.25</v>
       </c>
@@ -5377,7 +6457,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.25</v>
       </c>
@@ -5388,7 +6468,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.25</v>
       </c>
@@ -5399,7 +6479,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.25</v>
       </c>
@@ -5410,7 +6490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.25</v>
       </c>
@@ -5421,7 +6501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.25</v>
       </c>
@@ -5432,7 +6512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.25</v>
       </c>
@@ -5443,7 +6523,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.5</v>
       </c>
@@ -5454,7 +6534,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.5</v>
       </c>
@@ -5465,7 +6545,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.5</v>
       </c>
@@ -5476,7 +6556,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.5</v>
       </c>
@@ -5487,7 +6567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.5</v>
       </c>
@@ -5498,7 +6578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.5</v>
       </c>
@@ -5509,7 +6589,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.5</v>
       </c>
@@ -5520,7 +6600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.75</v>
       </c>
@@ -5531,7 +6611,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.75</v>
       </c>
@@ -5542,7 +6622,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.75</v>
       </c>
@@ -5553,7 +6633,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.75</v>
       </c>
@@ -5564,7 +6644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.75</v>
       </c>
@@ -5575,7 +6655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.75</v>
       </c>
@@ -5586,7 +6666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.75</v>
       </c>
@@ -5597,7 +6677,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -5608,7 +6688,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -5619,7 +6699,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -5630,7 +6710,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -5641,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -5652,7 +6732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -5663,7 +6743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -5674,7 +6754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1.25</v>
       </c>
@@ -5685,7 +6765,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1.25</v>
       </c>
@@ -5696,7 +6776,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1.25</v>
       </c>
@@ -5707,7 +6787,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1.25</v>
       </c>
@@ -5718,7 +6798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1.25</v>
       </c>
@@ -5729,7 +6809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1.25</v>
       </c>
@@ -5740,7 +6820,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1.25</v>
       </c>
@@ -5751,7 +6831,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1.5</v>
       </c>
@@ -5762,7 +6842,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1.5</v>
       </c>
@@ -5773,7 +6853,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1.5</v>
       </c>
@@ -5784,7 +6864,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1.5</v>
       </c>
@@ -5795,7 +6875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1.5</v>
       </c>
@@ -5806,7 +6886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1.5</v>
       </c>
@@ -5817,7 +6897,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1.5</v>
       </c>
@@ -5828,7 +6908,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1.75</v>
       </c>
@@ -5839,7 +6919,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1.75</v>
       </c>
@@ -5850,7 +6930,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1.75</v>
       </c>
@@ -5861,7 +6941,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1.75</v>
       </c>
@@ -5872,7 +6952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1.75</v>
       </c>
@@ -5883,7 +6963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1.75</v>
       </c>
@@ -5894,7 +6974,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1.75</v>
       </c>
@@ -5905,7 +6985,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2</v>
       </c>
@@ -5916,7 +6996,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2</v>
       </c>
@@ -5927,7 +7007,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2</v>
       </c>
@@ -5938,7 +7018,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2</v>
       </c>
@@ -5949,7 +7029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2</v>
       </c>
@@ -5960,7 +7040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2</v>
       </c>
@@ -5971,7 +7051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2</v>
       </c>
@@ -5982,7 +7062,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2.25</v>
       </c>
@@ -5993,7 +7073,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2.25</v>
       </c>
@@ -6004,7 +7084,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2.25</v>
       </c>
@@ -6015,7 +7095,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2.25</v>
       </c>
@@ -6026,7 +7106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2.25</v>
       </c>
@@ -6037,7 +7117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2.25</v>
       </c>
@@ -6048,7 +7128,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2.25</v>
       </c>
@@ -6059,7 +7139,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2.5</v>
       </c>
@@ -6070,7 +7150,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2.5</v>
       </c>
@@ -6081,7 +7161,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2.5</v>
       </c>
@@ -6092,7 +7172,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2.5</v>
       </c>
@@ -6103,7 +7183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2.5</v>
       </c>
@@ -6114,7 +7194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2.5</v>
       </c>
@@ -6125,7 +7205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2.5</v>
       </c>
@@ -6136,7 +7216,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2.75</v>
       </c>
@@ -6147,7 +7227,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2.75</v>
       </c>
@@ -6158,7 +7238,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2.75</v>
       </c>
@@ -6169,7 +7249,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2.75</v>
       </c>
@@ -6180,7 +7260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2.75</v>
       </c>
@@ -6191,7 +7271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2.75</v>
       </c>
@@ -6202,7 +7282,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2.75</v>
       </c>
@@ -6213,7 +7293,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>3</v>
       </c>
@@ -6224,7 +7304,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>3</v>
       </c>
@@ -6235,7 +7315,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>3</v>
       </c>
@@ -6246,7 +7326,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>3</v>
       </c>
@@ -6257,7 +7337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>3</v>
       </c>
@@ -6268,7 +7348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>3</v>
       </c>
@@ -6279,7 +7359,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>3</v>
       </c>
@@ -6296,20 +7376,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -6320,7 +7400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>144</v>
       </c>
@@ -6328,7 +7408,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>147</v>
       </c>
@@ -6336,7 +7416,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>144</v>
       </c>
@@ -6344,7 +7424,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>142</v>
       </c>
@@ -6352,7 +7432,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>140</v>
       </c>
@@ -6360,7 +7440,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>139</v>
       </c>
@@ -6368,7 +7448,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>138</v>
       </c>
@@ -6376,7 +7456,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>137</v>
       </c>
@@ -6390,20 +7470,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6411,7 +7491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6419,7 +7499,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.25</v>
       </c>
@@ -6427,7 +7507,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -6435,7 +7515,7 @@
         <v>97.8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.75</v>
       </c>
@@ -6443,7 +7523,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -6451,7 +7531,7 @@
         <v>185.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.25</v>
       </c>
@@ -6459,7 +7539,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.5</v>
       </c>
@@ -6467,7 +7547,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1.75</v>
       </c>
@@ -6475,7 +7555,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -6483,7 +7563,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2.25</v>
       </c>
@@ -6491,7 +7571,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2.5</v>
       </c>
@@ -6499,7 +7579,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2.75</v>
       </c>
@@ -6507,7 +7587,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>

--- a/Hall_Effect/Datos/Efecto_Hall.xlsx
+++ b/Hall_Effect/Datos/Efecto_Hall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josealejandromontanacortes/Dropbox/Laboratorio_Avanzado/Hall_Effect/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A754B4CA-A4C1-C449-819A-C5E7E92424B2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393FA3EA-B674-AC45-853F-B3520B9830DC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="12280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividad_2_parte_1" sheetId="1" r:id="rId1"/>
@@ -1547,10 +1547,10 @@
                   <c:v>14.9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-10.9</c:v>
+                  <c:v>-12.7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-15.5</c:v>
+                  <c:v>-17.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>15.9</c:v>
@@ -4914,7 +4914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -5818,8 +5818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6003,6 +6003,9 @@
       <c r="B13">
         <v>-0.3</v>
       </c>
+      <c r="C13">
+        <v>55</v>
+      </c>
       <c r="D13">
         <v>-10</v>
       </c>
@@ -6014,6 +6017,12 @@
       <c r="B14">
         <v>-0.1</v>
       </c>
+      <c r="C14">
+        <v>55</v>
+      </c>
+      <c r="D14">
+        <v>-10</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -6022,6 +6031,12 @@
       <c r="B15">
         <v>-0.2</v>
       </c>
+      <c r="C15">
+        <v>55</v>
+      </c>
+      <c r="D15">
+        <v>-10</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -6030,109 +6045,193 @@
       <c r="B16">
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>55</v>
+      </c>
+      <c r="D16">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>9.9</v>
       </c>
       <c r="B17">
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>11.1</v>
       </c>
       <c r="B18">
         <v>-0.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>55</v>
+      </c>
+      <c r="D18">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>12.4</v>
       </c>
       <c r="B19">
         <v>-0.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>55</v>
+      </c>
+      <c r="D19">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>13.6</v>
       </c>
       <c r="B20">
         <v>-0.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>55</v>
+      </c>
+      <c r="D20">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>14.9</v>
       </c>
       <c r="B21">
         <v>-0.9</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>55</v>
+      </c>
+      <c r="D21">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>-10.9</v>
+        <v>-12.7</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>55</v>
+      </c>
+      <c r="D22">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>-15.5</v>
+        <v>-17.899999999999999</v>
       </c>
       <c r="B23">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>55</v>
+      </c>
+      <c r="D23">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>15.9</v>
       </c>
       <c r="B24">
         <v>-1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>55</v>
+      </c>
+      <c r="D24">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>17.100000000000001</v>
       </c>
       <c r="B25">
         <v>-1.1000000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>55</v>
+      </c>
+      <c r="D25">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>18.2</v>
       </c>
       <c r="B26">
         <v>-1.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>55</v>
+      </c>
+      <c r="D26">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>19.5</v>
       </c>
       <c r="B27">
         <v>-1.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>55</v>
+      </c>
+      <c r="D27">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>20.5</v>
       </c>
       <c r="B28">
         <v>-1.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>55</v>
+      </c>
+      <c r="D28">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>21.4</v>
       </c>
       <c r="B29">
         <v>-1.5</v>
+      </c>
+      <c r="C29">
+        <v>55</v>
+      </c>
+      <c r="D29">
+        <v>-10</v>
       </c>
     </row>
   </sheetData>

--- a/Hall_Effect/Datos/Efecto_Hall.xlsx
+++ b/Hall_Effect/Datos/Efecto_Hall.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josealejandromontanacortes/Dropbox/Laboratorio_Avanzado/Hall_Effect/Datos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ja.montana\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393FA3EA-B674-AC45-853F-B3520B9830DC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="12280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Actividad_2_parte_1" sheetId="1" r:id="rId1"/>
     <sheet name="Actividad_2_parte_2" sheetId="3" r:id="rId2"/>
     <sheet name="Actividad_3_parte_1" sheetId="4" r:id="rId3"/>
     <sheet name="Actividad_3_parte_2" sheetId="5" r:id="rId4"/>
-    <sheet name="Activi" sheetId="6" r:id="rId5"/>
-    <sheet name="Clibracion" sheetId="2" r:id="rId6"/>
+    <sheet name="Actividad_3_parte_2_intento_2" sheetId="7" r:id="rId5"/>
+    <sheet name="Actividad_4_parte_1" sheetId="6" r:id="rId6"/>
+    <sheet name="Actividad_4_parte_2" sheetId="8" r:id="rId7"/>
+    <sheet name="Clibracion" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Campo magnetico(mT)</t>
   </si>
@@ -77,15 +78,32 @@
     <t>Temperatura</t>
   </si>
   <si>
-    <t>Voltaje longitu</t>
+    <t>Voltaje Funte</t>
+  </si>
+  <si>
+    <t>Voltaje longitudinal</t>
+  </si>
+  <si>
+    <t>Campo magnetico (A)</t>
+  </si>
+  <si>
+    <t>Voltaje Hall(mV)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -113,8 +131,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -135,7 +155,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -172,7 +192,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -776,7 +796,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1905056944"/>
@@ -838,7 +858,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1905055280"/>
@@ -880,7 +900,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -910,7 +930,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -924,7 +944,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -961,7 +981,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1273,7 +1293,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="724605903"/>
@@ -1335,7 +1355,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="739053583"/>
@@ -1352,6 +1372,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1359,7 +1380,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1383,7 +1403,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1397,7 +1417,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1434,7 +1454,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1733,7 +1753,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1670811776"/>
@@ -1795,7 +1815,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1670810944"/>
@@ -1836,7 +1856,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1850,7 +1870,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1862,6 +1882,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1887,7 +1908,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1978,7 +1999,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2152,7 +2173,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1903916352"/>
@@ -2214,7 +2235,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1903081920"/>
@@ -2255,7 +2276,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4911,22 +4932,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -4940,7 +4961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20</v>
       </c>
@@ -4954,7 +4975,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20</v>
       </c>
@@ -4968,7 +4989,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20</v>
       </c>
@@ -4982,7 +5003,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
@@ -4996,7 +5017,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -5010,7 +5031,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
@@ -5024,7 +5045,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20</v>
       </c>
@@ -5038,7 +5059,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20</v>
       </c>
@@ -5052,7 +5073,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20</v>
       </c>
@@ -5066,7 +5087,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20</v>
       </c>
@@ -5080,7 +5101,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20</v>
       </c>
@@ -5094,7 +5115,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20</v>
       </c>
@@ -5108,7 +5129,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20</v>
       </c>
@@ -5122,7 +5143,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
@@ -5136,7 +5157,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20</v>
       </c>
@@ -5150,7 +5171,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20</v>
       </c>
@@ -5164,7 +5185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20</v>
       </c>
@@ -5178,7 +5199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20</v>
       </c>
@@ -5192,7 +5213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -5206,7 +5227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5220,7 +5241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -5234,7 +5255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -5248,7 +5269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
@@ -5262,7 +5283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
@@ -5276,7 +5297,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
@@ -5290,7 +5311,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20</v>
       </c>
@@ -5304,7 +5325,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20</v>
       </c>
@@ -5318,7 +5339,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20</v>
       </c>
@@ -5332,7 +5353,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>20</v>
       </c>
@@ -5346,7 +5367,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>20</v>
       </c>
@@ -5360,7 +5381,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20</v>
       </c>
@@ -5374,7 +5395,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20</v>
       </c>
@@ -5388,7 +5409,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20</v>
       </c>
@@ -5402,7 +5423,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>20</v>
       </c>
@@ -5416,7 +5437,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>20</v>
       </c>
@@ -5430,7 +5451,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>20</v>
       </c>
@@ -5444,7 +5465,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>20</v>
       </c>
@@ -5458,7 +5479,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>20</v>
       </c>
@@ -5472,7 +5493,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>20</v>
       </c>
@@ -5486,7 +5507,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>20</v>
       </c>
@@ -5500,7 +5521,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>20</v>
       </c>
@@ -5514,7 +5535,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>20</v>
       </c>
@@ -5528,7 +5549,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>20</v>
       </c>
@@ -5542,7 +5563,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>20</v>
       </c>
@@ -5556,7 +5577,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>20</v>
       </c>
@@ -5570,7 +5591,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>20</v>
       </c>
@@ -5584,7 +5605,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>20</v>
       </c>
@@ -5598,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>20</v>
       </c>
@@ -5612,7 +5633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>20</v>
       </c>
@@ -5626,7 +5647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>20</v>
       </c>
@@ -5640,7 +5661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>20</v>
       </c>
@@ -5654,7 +5675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>20</v>
       </c>
@@ -5668,7 +5689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>20</v>
       </c>
@@ -5682,7 +5703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>20</v>
       </c>
@@ -5696,7 +5717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>20</v>
       </c>
@@ -5710,7 +5731,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>20</v>
       </c>
@@ -5724,7 +5745,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>20</v>
       </c>
@@ -5738,7 +5759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>20</v>
       </c>
@@ -5752,7 +5773,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>20</v>
       </c>
@@ -5766,7 +5787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>20</v>
       </c>
@@ -5780,7 +5801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>20</v>
       </c>
@@ -5794,7 +5815,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>20</v>
       </c>
@@ -5815,20 +5836,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -5842,7 +5863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-11.3</v>
       </c>
@@ -5856,7 +5877,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-10.3</v>
       </c>
@@ -5870,7 +5891,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-9.1</v>
       </c>
@@ -5884,7 +5905,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-7.8</v>
       </c>
@@ -5898,7 +5919,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-6.4</v>
       </c>
@@ -5912,7 +5933,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-5.3</v>
       </c>
@@ -5926,7 +5947,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-3.4</v>
       </c>
@@ -5940,7 +5961,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-14.3</v>
       </c>
@@ -5954,7 +5975,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-15.3</v>
       </c>
@@ -5968,7 +5989,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-16.100000000000001</v>
       </c>
@@ -5982,7 +6003,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-17.100000000000001</v>
       </c>
@@ -5996,7 +6017,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7.2</v>
       </c>
@@ -6010,7 +6031,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4.9000000000000004</v>
       </c>
@@ -6024,7 +6045,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5.9</v>
       </c>
@@ -6038,7 +6059,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8.6</v>
       </c>
@@ -6052,7 +6073,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9.9</v>
       </c>
@@ -6066,7 +6087,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11.1</v>
       </c>
@@ -6080,7 +6101,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12.4</v>
       </c>
@@ -6094,7 +6115,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>13.6</v>
       </c>
@@ -6108,7 +6129,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>14.9</v>
       </c>
@@ -6122,7 +6143,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-12.7</v>
       </c>
@@ -6136,7 +6157,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-17.899999999999999</v>
       </c>
@@ -6150,7 +6171,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>15.9</v>
       </c>
@@ -6164,7 +6185,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>17.100000000000001</v>
       </c>
@@ -6178,7 +6199,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>18.2</v>
       </c>
@@ -6192,7 +6213,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>19.5</v>
       </c>
@@ -6206,7 +6227,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20.5</v>
       </c>
@@ -6220,7 +6241,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>21.4</v>
       </c>
@@ -6241,19 +6262,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -6264,7 +6285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>59</v>
       </c>
@@ -6275,7 +6296,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>-1.61</v>
       </c>
@@ -6283,7 +6304,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>-1.53</v>
       </c>
@@ -6291,7 +6312,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>-1.43</v>
       </c>
@@ -6299,7 +6320,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>-1.28</v>
       </c>
@@ -6307,7 +6328,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>-1.18</v>
       </c>
@@ -6315,7 +6336,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>-1.08</v>
       </c>
@@ -6323,7 +6344,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>-1.01</v>
       </c>
@@ -6331,7 +6352,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>-0.84</v>
       </c>
@@ -6339,7 +6360,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>-0.74</v>
       </c>
@@ -6347,7 +6368,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>-0.63</v>
       </c>
@@ -6355,7 +6376,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>-0.55000000000000004</v>
       </c>
@@ -6363,7 +6384,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>-0.4</v>
       </c>
@@ -6371,7 +6392,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>-0.31</v>
       </c>
@@ -6379,7 +6400,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>-0.18</v>
       </c>
@@ -6387,7 +6408,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>-0.06</v>
       </c>
@@ -6395,7 +6416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0.09</v>
       </c>
@@ -6403,7 +6424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0.2</v>
       </c>
@@ -6411,7 +6432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>0.28999999999999998</v>
       </c>
@@ -6419,7 +6440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0.42</v>
       </c>
@@ -6427,7 +6448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.52</v>
       </c>
@@ -6435,7 +6456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.61</v>
       </c>
@@ -6443,7 +6464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0.71</v>
       </c>
@@ -6451,7 +6472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0.8</v>
       </c>
@@ -6459,7 +6480,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>0.92</v>
       </c>
@@ -6467,7 +6488,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>1.05</v>
       </c>
@@ -6475,7 +6496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>1.1399999999999999</v>
       </c>
@@ -6483,7 +6504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>1.26</v>
       </c>
@@ -6491,7 +6512,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>1.34</v>
       </c>
@@ -6499,7 +6520,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>1.44</v>
       </c>
@@ -6507,7 +6528,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>1.54</v>
       </c>
@@ -6521,20 +6542,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -6545,7 +6566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.25</v>
       </c>
@@ -6556,7 +6577,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.25</v>
       </c>
@@ -6567,7 +6588,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.25</v>
       </c>
@@ -6578,7 +6599,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.25</v>
       </c>
@@ -6589,7 +6610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.25</v>
       </c>
@@ -6600,7 +6621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.25</v>
       </c>
@@ -6611,7 +6632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.25</v>
       </c>
@@ -6622,7 +6643,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.5</v>
       </c>
@@ -6633,7 +6654,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.5</v>
       </c>
@@ -6644,7 +6665,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.5</v>
       </c>
@@ -6655,7 +6676,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.5</v>
       </c>
@@ -6666,7 +6687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.5</v>
       </c>
@@ -6677,7 +6698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.5</v>
       </c>
@@ -6688,7 +6709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.5</v>
       </c>
@@ -6699,7 +6720,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.75</v>
       </c>
@@ -6710,7 +6731,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.75</v>
       </c>
@@ -6721,7 +6742,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.75</v>
       </c>
@@ -6732,7 +6753,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.75</v>
       </c>
@@ -6743,7 +6764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.75</v>
       </c>
@@ -6754,7 +6775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.75</v>
       </c>
@@ -6765,7 +6786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.75</v>
       </c>
@@ -6776,7 +6797,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -6787,18 +6808,18 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24">
-        <v>1.18</v>
+        <v>-1.18</v>
       </c>
       <c r="C24">
         <v>-20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -6809,7 +6830,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -6820,7 +6841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -6831,7 +6852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -6842,7 +6863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -6853,7 +6874,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1.25</v>
       </c>
@@ -6864,7 +6885,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1.25</v>
       </c>
@@ -6875,7 +6896,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1.25</v>
       </c>
@@ -6886,7 +6907,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1.25</v>
       </c>
@@ -6897,7 +6918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1.25</v>
       </c>
@@ -6908,7 +6929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1.25</v>
       </c>
@@ -6919,7 +6940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1.25</v>
       </c>
@@ -6930,7 +6951,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1.5</v>
       </c>
@@ -6941,7 +6962,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1.5</v>
       </c>
@@ -6952,7 +6973,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1.5</v>
       </c>
@@ -6963,7 +6984,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1.5</v>
       </c>
@@ -6974,7 +6995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1.5</v>
       </c>
@@ -6985,7 +7006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1.5</v>
       </c>
@@ -6996,7 +7017,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1.5</v>
       </c>
@@ -7007,7 +7028,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1.75</v>
       </c>
@@ -7018,7 +7039,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1.75</v>
       </c>
@@ -7029,7 +7050,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1.75</v>
       </c>
@@ -7040,7 +7061,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1.75</v>
       </c>
@@ -7051,7 +7072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1.75</v>
       </c>
@@ -7062,7 +7083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1.75</v>
       </c>
@@ -7073,7 +7094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1.75</v>
       </c>
@@ -7084,7 +7105,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2</v>
       </c>
@@ -7095,7 +7116,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
@@ -7106,7 +7127,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2</v>
       </c>
@@ -7117,7 +7138,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -7128,7 +7149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
@@ -7139,7 +7160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
@@ -7150,7 +7171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2</v>
       </c>
@@ -7161,7 +7182,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2.25</v>
       </c>
@@ -7172,7 +7193,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2.25</v>
       </c>
@@ -7183,7 +7204,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2.25</v>
       </c>
@@ -7194,7 +7215,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2.25</v>
       </c>
@@ -7205,7 +7226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2.25</v>
       </c>
@@ -7216,7 +7237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2.25</v>
       </c>
@@ -7227,7 +7248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2.25</v>
       </c>
@@ -7238,7 +7259,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2.5</v>
       </c>
@@ -7249,7 +7270,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2.5</v>
       </c>
@@ -7260,7 +7281,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2.5</v>
       </c>
@@ -7271,7 +7292,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2.5</v>
       </c>
@@ -7282,7 +7303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2.5</v>
       </c>
@@ -7293,7 +7314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2.5</v>
       </c>
@@ -7304,7 +7325,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2.5</v>
       </c>
@@ -7315,7 +7336,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2.75</v>
       </c>
@@ -7326,7 +7347,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2.75</v>
       </c>
@@ -7337,7 +7358,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2.75</v>
       </c>
@@ -7348,7 +7369,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2.75</v>
       </c>
@@ -7359,7 +7380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2.75</v>
       </c>
@@ -7370,7 +7391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2.75</v>
       </c>
@@ -7381,7 +7402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2.75</v>
       </c>
@@ -7392,7 +7413,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3</v>
       </c>
@@ -7403,7 +7424,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -7414,7 +7435,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3</v>
       </c>
@@ -7425,7 +7446,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3</v>
       </c>
@@ -7436,7 +7457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3</v>
       </c>
@@ -7447,7 +7468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3</v>
       </c>
@@ -7458,7 +7479,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3</v>
       </c>
@@ -7475,92 +7496,2818 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-1.94</v>
+      </c>
+      <c r="C2">
+        <v>-30</v>
+      </c>
+      <c r="D2">
+        <v>12.04</v>
+      </c>
+      <c r="E2" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-1.4</v>
+      </c>
+      <c r="C3">
+        <v>-20</v>
+      </c>
+      <c r="D3">
+        <v>12.04</v>
+      </c>
+      <c r="E3" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>-0.77</v>
+      </c>
+      <c r="C4">
+        <v>-10</v>
+      </c>
+      <c r="D4">
+        <v>12.04</v>
+      </c>
+      <c r="E4" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>-0.11</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>12.04</v>
+      </c>
+      <c r="E5" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>12.04</v>
+      </c>
+      <c r="E6" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0.98</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>12.04</v>
+      </c>
+      <c r="E7" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1.4</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>12.04</v>
+      </c>
+      <c r="E8" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.25</v>
+      </c>
+      <c r="B9">
+        <v>-1.58</v>
+      </c>
+      <c r="C9">
+        <v>-30</v>
+      </c>
+      <c r="D9">
+        <v>12.08</v>
+      </c>
+      <c r="E9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.25</v>
+      </c>
+      <c r="B10">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C10">
+        <v>-20</v>
+      </c>
+      <c r="D10">
+        <v>12.08</v>
+      </c>
+      <c r="E10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.25</v>
+      </c>
+      <c r="B11">
+        <v>-0.65</v>
+      </c>
+      <c r="C11">
+        <v>-10</v>
+      </c>
+      <c r="D11">
+        <v>12.08</v>
+      </c>
+      <c r="E11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.25</v>
+      </c>
+      <c r="B12">
+        <v>-0.05</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>12.08</v>
+      </c>
+      <c r="E12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.25</v>
+      </c>
+      <c r="B13">
+        <v>0.35</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>12.08</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.25</v>
+      </c>
+      <c r="B14">
+        <v>0.82</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>12.08</v>
+      </c>
+      <c r="E14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.25</v>
+      </c>
+      <c r="B15">
+        <v>1.31</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>12.08</v>
+      </c>
+      <c r="E15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.5</v>
+      </c>
+      <c r="B16">
+        <v>-1.63</v>
+      </c>
+      <c r="C16">
+        <v>-30</v>
+      </c>
+      <c r="D16">
+        <v>12.05</v>
+      </c>
+      <c r="E16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.5</v>
+      </c>
+      <c r="B17">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="C17">
+        <v>-20</v>
+      </c>
+      <c r="D17">
+        <v>12.05</v>
+      </c>
+      <c r="E17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.5</v>
+      </c>
+      <c r="B18">
+        <v>-0.65</v>
+      </c>
+      <c r="C18">
+        <v>-10</v>
+      </c>
+      <c r="D18">
+        <v>12.05</v>
+      </c>
+      <c r="E18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.5</v>
+      </c>
+      <c r="B19">
+        <v>-0.1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>12.05</v>
+      </c>
+      <c r="E19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.5</v>
+      </c>
+      <c r="B20">
+        <v>0.38</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>12.05</v>
+      </c>
+      <c r="E20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.5</v>
+      </c>
+      <c r="B21">
+        <v>0.83</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>12.05</v>
+      </c>
+      <c r="E21">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.5</v>
+      </c>
+      <c r="B22">
+        <v>1.33</v>
+      </c>
+      <c r="C22">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>12.05</v>
+      </c>
+      <c r="E22">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.75</v>
+      </c>
+      <c r="B23">
+        <v>-1.63</v>
+      </c>
+      <c r="C23">
+        <v>-30</v>
+      </c>
+      <c r="D23">
+        <v>12.05</v>
+      </c>
+      <c r="E23">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.75</v>
+      </c>
+      <c r="B24">
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="C24">
+        <v>-20</v>
+      </c>
+      <c r="D24">
+        <v>12.05</v>
+      </c>
+      <c r="E24">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.75</v>
+      </c>
+      <c r="B25">
+        <v>-0.65</v>
+      </c>
+      <c r="C25">
+        <v>-10</v>
+      </c>
+      <c r="D25">
+        <v>12.05</v>
+      </c>
+      <c r="E25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.75</v>
+      </c>
+      <c r="B26">
+        <v>-0.15</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>12.05</v>
+      </c>
+      <c r="E26">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.75</v>
+      </c>
+      <c r="B27">
+        <v>0.39</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>12.05</v>
+      </c>
+      <c r="E27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.75</v>
+      </c>
+      <c r="B28">
+        <v>0.85</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>12.05</v>
+      </c>
+      <c r="E28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.75</v>
+      </c>
+      <c r="B29">
+        <v>1.29</v>
+      </c>
+      <c r="C29">
+        <v>30</v>
+      </c>
+      <c r="D29">
+        <v>12.05</v>
+      </c>
+      <c r="E29">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>-1.6</v>
+      </c>
+      <c r="C30">
+        <v>-30</v>
+      </c>
+      <c r="D30">
+        <v>12.05</v>
+      </c>
+      <c r="E30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="C31">
+        <v>-20</v>
+      </c>
+      <c r="D31">
+        <v>12.05</v>
+      </c>
+      <c r="E31">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>-0.66</v>
+      </c>
+      <c r="C32">
+        <v>-10</v>
+      </c>
+      <c r="D32">
+        <v>12.05</v>
+      </c>
+      <c r="E32">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>12.05</v>
+      </c>
+      <c r="E33">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>0.37</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>12.05</v>
+      </c>
+      <c r="E34">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>0.83</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <v>12.05</v>
+      </c>
+      <c r="E35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>1.28</v>
+      </c>
+      <c r="C36">
+        <v>30</v>
+      </c>
+      <c r="D36">
+        <v>12.05</v>
+      </c>
+      <c r="E36">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1.25</v>
+      </c>
+      <c r="B37">
+        <v>-1.61</v>
+      </c>
+      <c r="C37">
+        <v>-30</v>
+      </c>
+      <c r="D37">
+        <v>12.05</v>
+      </c>
+      <c r="E37">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1.25</v>
+      </c>
+      <c r="B38">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="C38">
+        <v>-20</v>
+      </c>
+      <c r="D38">
+        <v>12.05</v>
+      </c>
+      <c r="E38">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1.25</v>
+      </c>
+      <c r="B39">
+        <v>-0.67</v>
+      </c>
+      <c r="C39">
+        <v>-10</v>
+      </c>
+      <c r="D39">
+        <v>12.05</v>
+      </c>
+      <c r="E39">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1.25</v>
+      </c>
+      <c r="B40">
+        <v>-0.15</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>12.05</v>
+      </c>
+      <c r="E40">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1.25</v>
+      </c>
+      <c r="B41">
+        <v>0.35</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>12.05</v>
+      </c>
+      <c r="E41">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1.25</v>
+      </c>
+      <c r="B42">
+        <v>0.88</v>
+      </c>
+      <c r="C42">
+        <v>20</v>
+      </c>
+      <c r="D42">
+        <v>12.05</v>
+      </c>
+      <c r="E42">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1.25</v>
+      </c>
+      <c r="B43">
+        <v>1.35</v>
+      </c>
+      <c r="C43">
+        <v>30</v>
+      </c>
+      <c r="D43">
+        <v>12.05</v>
+      </c>
+      <c r="E43">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1.5</v>
+      </c>
+      <c r="B44">
+        <v>-1.61</v>
+      </c>
+      <c r="C44">
+        <v>-30</v>
+      </c>
+      <c r="D44">
+        <v>12.05</v>
+      </c>
+      <c r="E44">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1.5</v>
+      </c>
+      <c r="B45">
+        <v>-1.17</v>
+      </c>
+      <c r="C45">
+        <v>-20</v>
+      </c>
+      <c r="D45">
+        <v>12.05</v>
+      </c>
+      <c r="E45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1.5</v>
+      </c>
+      <c r="B46">
+        <v>-0.66</v>
+      </c>
+      <c r="C46">
+        <v>-10</v>
+      </c>
+      <c r="D46">
+        <v>12.05</v>
+      </c>
+      <c r="E46">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1.5</v>
+      </c>
+      <c r="B47">
+        <v>-0.12</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>12.05</v>
+      </c>
+      <c r="E47">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1.5</v>
+      </c>
+      <c r="B48">
+        <v>0.39</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>12.05</v>
+      </c>
+      <c r="E48">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1.5</v>
+      </c>
+      <c r="B49">
+        <v>0.85</v>
+      </c>
+      <c r="C49">
+        <v>20</v>
+      </c>
+      <c r="D49">
+        <v>12.05</v>
+      </c>
+      <c r="E49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1.5</v>
+      </c>
+      <c r="B50">
+        <v>1.35</v>
+      </c>
+      <c r="C50">
+        <v>30</v>
+      </c>
+      <c r="D50">
+        <v>12.05</v>
+      </c>
+      <c r="E50">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1.75</v>
+      </c>
+      <c r="B51">
+        <v>-1.62</v>
+      </c>
+      <c r="C51">
+        <v>-30</v>
+      </c>
+      <c r="D51">
+        <v>12.05</v>
+      </c>
+      <c r="E51">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1.75</v>
+      </c>
+      <c r="B52">
+        <v>-1.17</v>
+      </c>
+      <c r="C52">
+        <v>-20</v>
+      </c>
+      <c r="D52">
+        <v>12.05</v>
+      </c>
+      <c r="E52">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1.75</v>
+      </c>
+      <c r="B53">
+        <v>-0.64</v>
+      </c>
+      <c r="C53">
+        <v>-10</v>
+      </c>
+      <c r="D53">
+        <v>12.05</v>
+      </c>
+      <c r="E53">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1.75</v>
+      </c>
+      <c r="B54">
+        <v>-0.11</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>12.05</v>
+      </c>
+      <c r="E54">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1.75</v>
+      </c>
+      <c r="B55">
+        <v>0.38</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>12.05</v>
+      </c>
+      <c r="E55">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1.75</v>
+      </c>
+      <c r="B56">
+        <v>0.85</v>
+      </c>
+      <c r="C56">
+        <v>20</v>
+      </c>
+      <c r="D56">
+        <v>12.05</v>
+      </c>
+      <c r="E56">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1.75</v>
+      </c>
+      <c r="B57">
+        <v>1.32</v>
+      </c>
+      <c r="C57">
+        <v>30</v>
+      </c>
+      <c r="D57">
+        <v>12.05</v>
+      </c>
+      <c r="E57">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>-1.61</v>
+      </c>
+      <c r="C58">
+        <v>-30</v>
+      </c>
+      <c r="D58">
+        <v>12.05</v>
+      </c>
+      <c r="E58">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="C59">
+        <v>-20</v>
+      </c>
+      <c r="D59">
+        <v>12.05</v>
+      </c>
+      <c r="E59">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>-0.64</v>
+      </c>
+      <c r="C60">
+        <v>-10</v>
+      </c>
+      <c r="D60">
+        <v>12.05</v>
+      </c>
+      <c r="E60">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>-0.12</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>12.05</v>
+      </c>
+      <c r="E61">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>0.36</v>
+      </c>
+      <c r="C62">
+        <v>10</v>
+      </c>
+      <c r="D62">
+        <v>12.05</v>
+      </c>
+      <c r="E62">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>0.79</v>
+      </c>
+      <c r="C63">
+        <v>20</v>
+      </c>
+      <c r="D63">
+        <v>12.05</v>
+      </c>
+      <c r="E63">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>1.32</v>
+      </c>
+      <c r="C64">
+        <v>30</v>
+      </c>
+      <c r="D64">
+        <v>12.05</v>
+      </c>
+      <c r="E64">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2.25</v>
+      </c>
+      <c r="B65">
+        <v>-1.58</v>
+      </c>
+      <c r="C65">
+        <v>-30</v>
+      </c>
+      <c r="D65">
+        <v>12.05</v>
+      </c>
+      <c r="E65">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2.25</v>
+      </c>
+      <c r="B66">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="C66">
+        <v>-20</v>
+      </c>
+      <c r="D66">
+        <v>12.05</v>
+      </c>
+      <c r="E66">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2.25</v>
+      </c>
+      <c r="B67">
+        <v>-0.69</v>
+      </c>
+      <c r="C67">
+        <v>-10</v>
+      </c>
+      <c r="D67">
+        <v>12.05</v>
+      </c>
+      <c r="E67">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2.25</v>
+      </c>
+      <c r="B68">
+        <v>-0.17</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>12.05</v>
+      </c>
+      <c r="E68">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2.25</v>
+      </c>
+      <c r="B69">
+        <v>0.4</v>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>12.05</v>
+      </c>
+      <c r="E69">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2.25</v>
+      </c>
+      <c r="B70">
+        <v>0.9</v>
+      </c>
+      <c r="C70">
+        <v>20</v>
+      </c>
+      <c r="D70">
+        <v>12.05</v>
+      </c>
+      <c r="E70">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2.25</v>
+      </c>
+      <c r="B71">
+        <v>1.35</v>
+      </c>
+      <c r="C71">
+        <v>30</v>
+      </c>
+      <c r="D71">
+        <v>12.05</v>
+      </c>
+      <c r="E71">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2.5</v>
+      </c>
+      <c r="B72">
+        <f>-1.7</f>
+        <v>-1.7</v>
+      </c>
+      <c r="C72">
+        <v>-30</v>
+      </c>
+      <c r="D72">
+        <v>12.05</v>
+      </c>
+      <c r="E72">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2.5</v>
+      </c>
+      <c r="B73">
+        <v>-1.2</v>
+      </c>
+      <c r="C73">
+        <v>-20</v>
+      </c>
+      <c r="D73">
+        <v>12.05</v>
+      </c>
+      <c r="E73">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2.5</v>
+      </c>
+      <c r="B74">
+        <v>-0.66</v>
+      </c>
+      <c r="C74">
+        <v>-10</v>
+      </c>
+      <c r="D74">
+        <v>12.05</v>
+      </c>
+      <c r="E74">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2.5</v>
+      </c>
+      <c r="B75">
+        <v>-0.11</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>12.05</v>
+      </c>
+      <c r="E75">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2.5</v>
+      </c>
+      <c r="B76">
+        <v>0.38</v>
+      </c>
+      <c r="C76">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>12.05</v>
+      </c>
+      <c r="E76">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2.5</v>
+      </c>
+      <c r="B77">
+        <v>0.85</v>
+      </c>
+      <c r="C77">
+        <v>20</v>
+      </c>
+      <c r="D77">
+        <v>12.05</v>
+      </c>
+      <c r="E77">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2.5</v>
+      </c>
+      <c r="B78">
+        <v>1.35</v>
+      </c>
+      <c r="C78">
+        <v>30</v>
+      </c>
+      <c r="D78">
+        <v>12.05</v>
+      </c>
+      <c r="E78">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2.75</v>
+      </c>
+      <c r="B79">
+        <v>-1.7</v>
+      </c>
+      <c r="C79">
+        <v>-30</v>
+      </c>
+      <c r="D79">
+        <v>12.05</v>
+      </c>
+      <c r="E79">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2.75</v>
+      </c>
+      <c r="B80">
+        <v>-1.2</v>
+      </c>
+      <c r="C80">
+        <v>-20</v>
+      </c>
+      <c r="D80">
+        <v>12.05</v>
+      </c>
+      <c r="E80">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2.75</v>
+      </c>
+      <c r="B81">
+        <v>-0.69</v>
+      </c>
+      <c r="C81">
+        <v>-10</v>
+      </c>
+      <c r="D81">
+        <v>12.05</v>
+      </c>
+      <c r="E81">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2.75</v>
+      </c>
+      <c r="B82">
+        <v>-0.12</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>12.05</v>
+      </c>
+      <c r="E82">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2.75</v>
+      </c>
+      <c r="B83">
+        <v>0.39</v>
+      </c>
+      <c r="C83">
+        <v>10</v>
+      </c>
+      <c r="D83">
+        <v>12.05</v>
+      </c>
+      <c r="E83">
+        <v>33</v>
+      </c>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2.75</v>
+      </c>
+      <c r="B84">
+        <v>0.89</v>
+      </c>
+      <c r="C84">
+        <v>20</v>
+      </c>
+      <c r="D84">
+        <v>12.05</v>
+      </c>
+      <c r="E84">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2.75</v>
+      </c>
+      <c r="B85">
+        <v>1.38</v>
+      </c>
+      <c r="C85">
+        <v>30</v>
+      </c>
+      <c r="D85">
+        <v>12.05</v>
+      </c>
+      <c r="E85">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>3</v>
+      </c>
+      <c r="B86">
+        <v>-1.73</v>
+      </c>
+      <c r="C86">
+        <v>-30</v>
+      </c>
+      <c r="D86">
+        <v>12.05</v>
+      </c>
+      <c r="E86">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87">
+        <v>-1.23</v>
+      </c>
+      <c r="C87">
+        <v>-20</v>
+      </c>
+      <c r="D87">
+        <v>12.05</v>
+      </c>
+      <c r="E87">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="B88">
+        <v>-0.73</v>
+      </c>
+      <c r="C88">
+        <v>-10</v>
+      </c>
+      <c r="D88">
+        <v>12.05</v>
+      </c>
+      <c r="E88">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>3</v>
+      </c>
+      <c r="B89">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>12.05</v>
+      </c>
+      <c r="E89">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>3</v>
+      </c>
+      <c r="B90">
+        <v>0.41</v>
+      </c>
+      <c r="C90">
+        <v>10</v>
+      </c>
+      <c r="D90">
+        <v>12.05</v>
+      </c>
+      <c r="E90">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91">
+        <v>0.88</v>
+      </c>
+      <c r="C91">
+        <v>20</v>
+      </c>
+      <c r="D91">
+        <v>12.05</v>
+      </c>
+      <c r="E91">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>3</v>
+      </c>
+      <c r="B92">
+        <v>1.36</v>
+      </c>
+      <c r="C92">
+        <v>30</v>
+      </c>
+      <c r="D92">
+        <v>12.05</v>
+      </c>
+      <c r="E92">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>142</v>
+      </c>
+      <c r="B2">
+        <v>0.04</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>135</v>
+      </c>
+      <c r="B3">
+        <v>0.52</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>134</v>
+      </c>
+      <c r="B4">
+        <v>0.53</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>133</v>
+      </c>
+      <c r="B5">
+        <v>0.54</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>132</v>
+      </c>
+      <c r="B6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>131</v>
+      </c>
+      <c r="B7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>130</v>
+      </c>
+      <c r="B8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>129</v>
+      </c>
+      <c r="B9">
+        <v>0.61</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>128</v>
+      </c>
+      <c r="B10">
+        <v>0.62</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>127</v>
+      </c>
+      <c r="B11">
+        <v>0.66</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>125</v>
+      </c>
+      <c r="B12">
+        <v>0.7</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>124</v>
+      </c>
+      <c r="B13">
+        <v>0.71</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>123</v>
+      </c>
+      <c r="B14">
+        <v>0.75</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>121</v>
+      </c>
+      <c r="B15">
+        <v>0.79</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>120</v>
+      </c>
+      <c r="B16">
+        <v>0.82</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>119</v>
+      </c>
+      <c r="B17">
+        <v>0.85</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>118</v>
+      </c>
+      <c r="B18">
+        <v>0.95</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>117</v>
+      </c>
+      <c r="B19">
+        <v>1.01</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>116</v>
+      </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>115</v>
+      </c>
+      <c r="B21">
+        <v>0.99</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>114</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>113</v>
+      </c>
+      <c r="B23">
+        <v>1.02</v>
+      </c>
+      <c r="C23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>112</v>
+      </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>111</v>
+      </c>
+      <c r="B25">
+        <v>1.06</v>
+      </c>
+      <c r="C25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>109</v>
+      </c>
+      <c r="B26">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>107</v>
+      </c>
+      <c r="B27">
+        <v>1.22</v>
+      </c>
+      <c r="C27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>105</v>
+      </c>
+      <c r="B28">
+        <v>1.24</v>
+      </c>
+      <c r="C28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>103</v>
+      </c>
+      <c r="B29">
+        <v>1.23</v>
+      </c>
+      <c r="C29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>101</v>
+      </c>
+      <c r="B30">
+        <v>1.31</v>
+      </c>
+      <c r="C30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>99</v>
+      </c>
+      <c r="B31">
+        <v>1.35</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>97</v>
+      </c>
+      <c r="B32">
+        <v>1.43</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>95</v>
+      </c>
+      <c r="B33">
+        <v>1.44</v>
+      </c>
+      <c r="C33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>93</v>
+      </c>
+      <c r="B34">
+        <v>1.47</v>
+      </c>
+      <c r="C34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>91</v>
+      </c>
+      <c r="B35">
+        <v>1.53</v>
+      </c>
+      <c r="C35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>89</v>
+      </c>
+      <c r="B36">
+        <v>1.58</v>
+      </c>
+      <c r="C36">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>87</v>
+      </c>
+      <c r="B37">
+        <v>1.56</v>
+      </c>
+      <c r="C37">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>85</v>
+      </c>
+      <c r="B38">
+        <v>1.72</v>
+      </c>
+      <c r="C38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>83</v>
+      </c>
+      <c r="B39">
+        <v>1.89</v>
+      </c>
+      <c r="C39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>81</v>
+      </c>
+      <c r="B40">
+        <v>1.68</v>
+      </c>
+      <c r="C40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>79</v>
+      </c>
+      <c r="B41">
+        <v>1.63</v>
+      </c>
+      <c r="C41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>77</v>
+      </c>
+      <c r="B42">
+        <v>1.84</v>
+      </c>
+      <c r="C42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>75</v>
+      </c>
+      <c r="B43">
+        <v>1.85</v>
+      </c>
+      <c r="C43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>73</v>
+      </c>
+      <c r="B44">
+        <v>1.8</v>
+      </c>
+      <c r="C44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>71</v>
+      </c>
+      <c r="B45">
+        <v>1.62</v>
+      </c>
+      <c r="C45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>69</v>
+      </c>
+      <c r="B46">
+        <v>1.65</v>
+      </c>
+      <c r="C46">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>67</v>
+      </c>
+      <c r="B47">
+        <v>1.73</v>
+      </c>
+      <c r="C47">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>65</v>
+      </c>
+      <c r="B48">
+        <v>1.92</v>
+      </c>
+      <c r="C48">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>63</v>
+      </c>
+      <c r="B49">
+        <v>1.97</v>
+      </c>
+      <c r="C49">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>61</v>
+      </c>
+      <c r="B50">
+        <v>1.86</v>
+      </c>
+      <c r="C50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>2.14</v>
+      </c>
+      <c r="C51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>2.21</v>
+      </c>
+      <c r="C52">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>55</v>
+      </c>
+      <c r="B53">
+        <v>1.8</v>
+      </c>
+      <c r="C53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>1.95</v>
+      </c>
+      <c r="C54">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>51</v>
+      </c>
+      <c r="B55">
+        <v>1.66</v>
+      </c>
+      <c r="C55">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>49</v>
+      </c>
+      <c r="B56">
+        <v>1.73</v>
+      </c>
+      <c r="C56">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>47</v>
+      </c>
+      <c r="B57">
+        <v>1.56</v>
+      </c>
+      <c r="C57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>45</v>
+      </c>
+      <c r="B58">
+        <v>1.77</v>
+      </c>
+      <c r="C58">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>43</v>
+      </c>
+      <c r="B59">
+        <v>1.6</v>
+      </c>
+      <c r="C59">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>41</v>
+      </c>
+      <c r="B60">
+        <v>1.57</v>
+      </c>
+      <c r="C60">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>39</v>
+      </c>
+      <c r="B61">
+        <v>1.57</v>
+      </c>
+      <c r="C61">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>37</v>
+      </c>
+      <c r="B62">
+        <v>1.87</v>
+      </c>
+      <c r="C62">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>35</v>
+      </c>
+      <c r="B63">
+        <v>1.85</v>
+      </c>
+      <c r="C63">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>30</v>
+      </c>
+      <c r="B64">
+        <v>1.41</v>
+      </c>
+      <c r="C64">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>144</v>
+        <v>1.75</v>
       </c>
       <c r="B2">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>147</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>1.75</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>30.5</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>144</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>136</v>
+      </c>
+      <c r="C4">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>134</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>132</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>130</v>
+      </c>
+      <c r="C7">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>1.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>142</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>140</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="C9">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>139</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C10">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>138</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>137</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C12">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>1.59</v>
+        <v>118</v>
+      </c>
+      <c r="C13">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>116</v>
+      </c>
+      <c r="C14">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>114</v>
+      </c>
+      <c r="C15">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>112</v>
+      </c>
+      <c r="C16">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>110</v>
+      </c>
+      <c r="C17">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>108</v>
+      </c>
+      <c r="C18">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>106</v>
+      </c>
+      <c r="C19">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>104</v>
+      </c>
+      <c r="C20">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>102</v>
+      </c>
+      <c r="C21">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>98</v>
+      </c>
+      <c r="C23">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>96</v>
+      </c>
+      <c r="C24">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>94</v>
+      </c>
+      <c r="C25">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>92</v>
+      </c>
+      <c r="C26">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>90</v>
+      </c>
+      <c r="C27">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>88</v>
+      </c>
+      <c r="C28">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>86</v>
+      </c>
+      <c r="C29">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>84</v>
+      </c>
+      <c r="C30">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>82</v>
+      </c>
+      <c r="C31">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>80</v>
+      </c>
+      <c r="C32">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>78</v>
+      </c>
+      <c r="C33">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>76</v>
+      </c>
+      <c r="C34">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>74</v>
+      </c>
+      <c r="C35">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>72</v>
+      </c>
+      <c r="C36">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>70</v>
+      </c>
+      <c r="C37">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>68</v>
+      </c>
+      <c r="C38">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>66</v>
+      </c>
+      <c r="C39">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>64</v>
+      </c>
+      <c r="C40">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>62</v>
+      </c>
+      <c r="C41">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>60</v>
+      </c>
+      <c r="C42">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>58</v>
+      </c>
+      <c r="C43">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>56</v>
+      </c>
+      <c r="C44">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>54</v>
+      </c>
+      <c r="C45">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>52</v>
+      </c>
+      <c r="C46">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>50</v>
+      </c>
+      <c r="C47">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>46</v>
+      </c>
+      <c r="C49">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>44</v>
+      </c>
+      <c r="C50">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>42</v>
+      </c>
+      <c r="C51">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>40</v>
+      </c>
+      <c r="C52">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>38</v>
+      </c>
+      <c r="C53">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>36</v>
+      </c>
+      <c r="C54">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>34</v>
+      </c>
+      <c r="C55">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>32</v>
+      </c>
+      <c r="C56">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>30</v>
+      </c>
+      <c r="C57">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>28</v>
+      </c>
+      <c r="C58">
+        <v>21.7</v>
       </c>
     </row>
   </sheetData>
@@ -7568,21 +10315,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -7590,7 +10335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7598,7 +10343,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.25</v>
       </c>
@@ -7606,7 +10351,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -7614,7 +10359,7 @@
         <v>97.8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.75</v>
       </c>
@@ -7622,7 +10367,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -7630,7 +10375,7 @@
         <v>185.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.25</v>
       </c>
@@ -7638,7 +10383,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.5</v>
       </c>
@@ -7646,7 +10391,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.75</v>
       </c>
@@ -7654,7 +10399,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -7662,7 +10407,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2.25</v>
       </c>
@@ -7670,7 +10415,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2.5</v>
       </c>
@@ -7678,7 +10423,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2.75</v>
       </c>
@@ -7686,7 +10431,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -7696,6 +10441,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Hall_Effect/Datos/Efecto_Hall.xlsx
+++ b/Hall_Effect/Datos/Efecto_Hall.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ja.montana\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamontana\Dropbox\Laboratorio_Avanzado\Hall_Effect\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AC4684-67A9-45E0-8AC9-BD5A519CFE1E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividad_2_parte_1" sheetId="1" r:id="rId1"/>
@@ -21,10 +22,16 @@
     <sheet name="Actividad_4_parte_2" sheetId="8" r:id="rId7"/>
     <sheet name="Clibracion" sheetId="2" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -93,7 +100,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,9 +138,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1372,7 +1378,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1380,6 +1385,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1882,7 +1888,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4932,7 +4937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5836,7 +5841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6262,7 +6267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6542,7 +6547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
@@ -7496,8 +7501,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -7541,7 +7546,7 @@
       <c r="D2">
         <v>12.04</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>31</v>
       </c>
     </row>
@@ -7558,7 +7563,7 @@
       <c r="D3">
         <v>12.04</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>31</v>
       </c>
     </row>
@@ -7575,7 +7580,7 @@
       <c r="D4">
         <v>12.04</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>31</v>
       </c>
     </row>
@@ -7592,7 +7597,7 @@
       <c r="D5">
         <v>12.04</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>31</v>
       </c>
     </row>
@@ -7609,7 +7614,7 @@
       <c r="D6">
         <v>12.04</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>31</v>
       </c>
     </row>
@@ -7626,7 +7631,7 @@
       <c r="D7">
         <v>12.04</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>31</v>
       </c>
     </row>
@@ -7643,7 +7648,7 @@
       <c r="D8">
         <v>12.04</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>31</v>
       </c>
     </row>
@@ -8872,7 +8877,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2.75</v>
       </c>
@@ -8889,7 +8894,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2.75</v>
       </c>
@@ -8906,7 +8911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2.75</v>
       </c>
@@ -8922,9 +8927,8 @@
       <c r="E83">
         <v>33</v>
       </c>
-      <c r="H83" s="1"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2.75</v>
       </c>
@@ -8941,7 +8945,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2.75</v>
       </c>
@@ -8958,7 +8962,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3</v>
       </c>
@@ -8975,7 +8979,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3</v>
       </c>
@@ -8992,7 +8996,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3</v>
       </c>
@@ -9009,7 +9013,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>3</v>
       </c>
@@ -9026,7 +9030,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3</v>
       </c>
@@ -9043,7 +9047,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>3</v>
       </c>
@@ -9060,7 +9064,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>3</v>
       </c>
@@ -9084,7 +9088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9109,7 +9113,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>142</v>
       </c>
       <c r="B2">
@@ -9808,11 +9812,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9822,7 +9826,7 @@
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -9836,7 +9840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.75</v>
       </c>
@@ -9849,465 +9853,803 @@
       <c r="D2">
         <v>30</v>
       </c>
-      <c r="E2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1.75</v>
       </c>
-      <c r="F2">
-        <v>25</v>
-      </c>
-      <c r="G2">
-        <v>30.5</v>
-      </c>
-      <c r="H2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>138</v>
       </c>
       <c r="C3">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.75</v>
+      </c>
       <c r="B4">
         <v>136</v>
       </c>
       <c r="C4">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.75</v>
+      </c>
       <c r="B5">
         <v>134</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.75</v>
+      </c>
       <c r="B6">
         <v>132</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.75</v>
+      </c>
       <c r="B7">
         <v>130</v>
       </c>
       <c r="C7">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.75</v>
+      </c>
       <c r="B8">
         <v>128</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.75</v>
+      </c>
       <c r="B9">
         <v>126</v>
       </c>
       <c r="C9">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1.75</v>
+      </c>
       <c r="B10">
         <v>124</v>
       </c>
       <c r="C10">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.75</v>
+      </c>
       <c r="B11">
         <v>122</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1.75</v>
+      </c>
       <c r="B12">
         <v>120</v>
       </c>
       <c r="C12">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1.75</v>
+      </c>
       <c r="B13">
         <v>118</v>
       </c>
       <c r="C13">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.75</v>
+      </c>
       <c r="B14">
         <v>116</v>
       </c>
       <c r="C14">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1.75</v>
+      </c>
       <c r="B15">
         <v>114</v>
       </c>
       <c r="C15">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1.75</v>
+      </c>
       <c r="B16">
         <v>112</v>
       </c>
       <c r="C16">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1.75</v>
+      </c>
       <c r="B17">
         <v>110</v>
       </c>
       <c r="C17">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1.75</v>
+      </c>
       <c r="B18">
         <v>108</v>
       </c>
       <c r="C18">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1.75</v>
+      </c>
       <c r="B19">
         <v>106</v>
       </c>
       <c r="C19">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1.75</v>
+      </c>
       <c r="B20">
         <v>104</v>
       </c>
       <c r="C20">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1.75</v>
+      </c>
       <c r="B21">
         <v>102</v>
       </c>
       <c r="C21">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1.75</v>
+      </c>
       <c r="B22">
         <v>100</v>
       </c>
       <c r="C22">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1.75</v>
+      </c>
       <c r="B23">
         <v>98</v>
       </c>
       <c r="C23">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1.75</v>
+      </c>
       <c r="B24">
         <v>96</v>
       </c>
       <c r="C24">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1.75</v>
+      </c>
       <c r="B25">
         <v>94</v>
       </c>
       <c r="C25">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1.75</v>
+      </c>
       <c r="B26">
         <v>92</v>
       </c>
       <c r="C26">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1.75</v>
+      </c>
       <c r="B27">
         <v>90</v>
       </c>
       <c r="C27">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1.75</v>
+      </c>
       <c r="B28">
         <v>88</v>
       </c>
       <c r="C28">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1.75</v>
+      </c>
       <c r="B29">
         <v>86</v>
       </c>
       <c r="C29">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1.75</v>
+      </c>
       <c r="B30">
         <v>84</v>
       </c>
       <c r="C30">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1.75</v>
+      </c>
       <c r="B31">
         <v>82</v>
       </c>
       <c r="C31">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1.75</v>
+      </c>
       <c r="B32">
         <v>80</v>
       </c>
       <c r="C32">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1.75</v>
+      </c>
       <c r="B33">
         <v>78</v>
       </c>
       <c r="C33">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1.75</v>
+      </c>
       <c r="B34">
         <v>76</v>
       </c>
       <c r="C34">
         <v>18.3</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1.75</v>
+      </c>
       <c r="B35">
         <v>74</v>
       </c>
       <c r="C35">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1.75</v>
+      </c>
       <c r="B36">
         <v>72</v>
       </c>
       <c r="C36">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1.75</v>
+      </c>
       <c r="B37">
         <v>70</v>
       </c>
       <c r="C37">
         <v>20.7</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1.75</v>
+      </c>
       <c r="B38">
         <v>68</v>
       </c>
       <c r="C38">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1.75</v>
+      </c>
       <c r="B39">
         <v>66</v>
       </c>
       <c r="C39">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1.75</v>
+      </c>
       <c r="B40">
         <v>64</v>
       </c>
       <c r="C40">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1.75</v>
+      </c>
       <c r="B41">
         <v>62</v>
       </c>
       <c r="C41">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1.75</v>
+      </c>
       <c r="B42">
         <v>60</v>
       </c>
       <c r="C42">
         <v>22.3</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1.75</v>
+      </c>
       <c r="B43">
         <v>58</v>
       </c>
       <c r="C43">
         <v>22.4</v>
       </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1.75</v>
+      </c>
       <c r="B44">
         <v>56</v>
       </c>
       <c r="C44">
         <v>23.7</v>
       </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1.75</v>
+      </c>
       <c r="B45">
         <v>54</v>
       </c>
       <c r="C45">
         <v>24.1</v>
       </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1.75</v>
+      </c>
       <c r="B46">
         <v>52</v>
       </c>
       <c r="C46">
         <v>24</v>
       </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1.75</v>
+      </c>
       <c r="B47">
         <v>50</v>
       </c>
       <c r="C47">
         <v>24.2</v>
       </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1.75</v>
+      </c>
       <c r="B48">
         <v>48</v>
       </c>
       <c r="C48">
         <v>24.6</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1.75</v>
+      </c>
       <c r="B49">
         <v>46</v>
       </c>
       <c r="C49">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1.75</v>
+      </c>
       <c r="B50">
         <v>44</v>
       </c>
       <c r="C50">
         <v>25.4</v>
       </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1.75</v>
+      </c>
       <c r="B51">
         <v>42</v>
       </c>
       <c r="C51">
         <v>24.3</v>
       </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1.75</v>
+      </c>
       <c r="B52">
         <v>40</v>
       </c>
       <c r="C52">
         <v>24.7</v>
       </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1.75</v>
+      </c>
       <c r="B53">
         <v>38</v>
       </c>
       <c r="C53">
         <v>25</v>
       </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1.75</v>
+      </c>
       <c r="B54">
         <v>36</v>
       </c>
       <c r="C54">
         <v>25.8</v>
       </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1.75</v>
+      </c>
       <c r="B55">
         <v>34</v>
       </c>
       <c r="C55">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1.75</v>
+      </c>
       <c r="B56">
         <v>32</v>
       </c>
       <c r="C56">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1.75</v>
+      </c>
       <c r="B57">
         <v>30</v>
       </c>
       <c r="C57">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1.75</v>
+      </c>
       <c r="B58">
         <v>28</v>
       </c>
       <c r="C58">
         <v>21.7</v>
+      </c>
+      <c r="D58">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1.75</v>
+      </c>
+      <c r="B59">
+        <v>25</v>
+      </c>
+      <c r="C59">
+        <v>30.5</v>
+      </c>
+      <c r="D59">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -10316,7 +10658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
